--- a/data/trans_dic/P16B18-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16B18-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,12%</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>33,97; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 56,93</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>33,97; 100,0</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,48%</t>
         </is>
       </c>
     </row>
@@ -810,32 +810,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>82,49; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>69,41; 96,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>82,49; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>69,41; 96,06</t>
         </is>
       </c>
     </row>
@@ -867,32 +867,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,54%</t>
         </is>
       </c>
     </row>
@@ -920,32 +920,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>87,67; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>91,88; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>87,37; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>87,67; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>91,88; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>87,37; 100,0</t>
         </is>
       </c>
     </row>
@@ -977,32 +977,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,51%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1030,32 +1030,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>82,4; 97,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>88,96; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>82,4; 97,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>88,96; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>94,97; 100</t>
         </is>
       </c>
     </row>
@@ -1087,32 +1087,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,93%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,77%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,93%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,77%</t>
         </is>
       </c>
     </row>
@@ -1140,32 +1140,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>76,41; 92,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>89,81; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>86,69; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>76,41; 92,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>89,81; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>86,69; 100,0</t>
         </is>
       </c>
     </row>
@@ -1197,32 +1197,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,59%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,77%</t>
         </is>
       </c>
     </row>
@@ -1250,32 +1250,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>87,34; 94,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>95,97; 99,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>91,84; 98,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>87,34; 94,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>95,97; 99,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>91,84; 98,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B18-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>94,48%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>86,8%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>94,48%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>84,12%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>84,12%</t>
+          <t>86,8%</t>
         </is>
       </c>
     </row>
@@ -700,39 +700,39 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>82,92; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>95,66; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,97; 100,0</t>
+          <t>69,93; 96,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,07; 100</t>
+          <t>82,92; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>73,58; 100</t>
+          <t>95,66; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,97; 100,0</t>
+          <t>69,93; 96,7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>87,48%</t>
+          <t>97,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>96,19%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>87,48%</t>
+          <t>97,54%</t>
         </is>
       </c>
     </row>
@@ -810,39 +810,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82,49; 100,0</t>
+          <t>87,67; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>94,97; 100</t>
+          <t>91,88; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>69,41; 96,06</t>
+          <t>87,37; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>82,49; 100,0</t>
+          <t>87,67; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>94,97; 100</t>
+          <t>91,88; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>69,41; 96,06</t>
+          <t>87,37; 100,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -867,32 +867,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>93,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>93,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -920,39 +920,39 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87,67; 100,0</t>
+          <t>82,4; 97,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>91,88; 100,0</t>
+          <t>88,96; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,37; 100,0</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>87,67; 100,0</t>
+          <t>82,4; 97,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>91,88; 100,0</t>
+          <t>88,96; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>87,37; 100,0</t>
+          <t>94,97; 100</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -977,32 +977,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>85,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>85,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>97,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>95,77%</t>
         </is>
       </c>
     </row>
@@ -1030,39 +1030,39 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82,4; 97,88</t>
+          <t>76,41; 92,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,96; 100,0</t>
+          <t>89,81; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,97; 100</t>
+          <t>86,69; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,4; 97,88</t>
+          <t>76,41; 92,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>88,96; 100,0</t>
+          <t>89,81; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>94,97; 100</t>
+          <t>86,69; 100,0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1087,12 +1087,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>85,93%</t>
+          <t>91,59%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>98,26%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1102,12 +1102,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>85,93%</t>
+          <t>91,59%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>98,26%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1140,154 +1140,44 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76,41; 92,5</t>
+          <t>87,34; 94,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>89,81; 100,0</t>
+          <t>95,97; 99,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>86,69; 100,0</t>
+          <t>91,84; 98,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>76,41; 92,5</t>
+          <t>87,34; 94,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>89,81; 100,0</t>
+          <t>95,97; 99,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>86,69; 100,0</t>
+          <t>91,84; 98,08</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>91,59%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>98,26%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>95,77%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>91,59%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>98,26%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>95,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>87,34; 94,89</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>95,97; 99,57</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>91,84; 98,08</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>87,34; 94,89</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>95,97; 99,57</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>91,84; 98,08</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16B18-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16B18-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -700,7 +701,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>82,92; 100,0</t>
+          <t>83,51; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +711,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>69,93; 96,7</t>
+          <t>69,56; 96,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>82,92; 100,0</t>
+          <t>83,51; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +726,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>69,93; 96,7</t>
+          <t>69,56; 96,7</t>
         </is>
       </c>
     </row>
@@ -810,32 +811,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>87,67; 100,0</t>
+          <t>88,18; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>91,88; 100,0</t>
+          <t>93,6; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,37; 100,0</t>
+          <t>86,6; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>87,67; 100,0</t>
+          <t>88,18; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>91,88; 100,0</t>
+          <t>93,6; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>87,37; 100,0</t>
+          <t>86,6; 100,0</t>
         </is>
       </c>
     </row>
@@ -920,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>82,4; 97,88</t>
+          <t>82,98; 97,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,96; 100,0</t>
+          <t>88,79; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>82,4; 97,88</t>
+          <t>82,98; 97,94</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>88,96; 100,0</t>
+          <t>88,79; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1030,32 +1031,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,41; 92,5</t>
+          <t>76,59; 92,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,81; 100,0</t>
+          <t>90,83; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,69; 100,0</t>
+          <t>85,81; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>76,41; 92,5</t>
+          <t>76,59; 92,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>89,81; 100,0</t>
+          <t>90,83; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>86,69; 100,0</t>
+          <t>85,81; 100,0</t>
         </is>
       </c>
     </row>
@@ -1140,32 +1141,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>87,34; 94,89</t>
+          <t>87,13; 94,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>95,97; 99,57</t>
+          <t>95,82; 99,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>91,84; 98,08</t>
+          <t>91,37; 98,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>87,34; 94,89</t>
+          <t>87,13; 94,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>95,97; 99,57</t>
+          <t>95,82; 99,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>91,84; 98,08</t>
+          <t>91,37; 98,14</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos anticonceptivos fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>35428</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>43835</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21952</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>35428</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>43835</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21952</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>31315; 37497</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>41931; 43835</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17592; 24457</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>31315; 37497</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>41931; 43835</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>17592; 24457</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>51714</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>68742</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>38870</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>51714</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>68742</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>38870</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>47409; 53764</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>65341; 69806</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>34511; 39851</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>47409; 53764</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>65341; 69806</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>34511; 39851</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>42366</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>45647</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>37050</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>42366</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>45647</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>37050</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>37596; 44374</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>41412; 46639</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>35188; 37050</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>37596; 44374</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>41412; 46639</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>35188; 37050</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>67205</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>62840</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>46100</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>67205</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>62840</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>46100</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>59898; 72341</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>58772; 64708</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>41302; 48134</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>59898; 72341</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>58772; 64708</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>41302; 48134</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>196712</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>221064</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>143972</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>196712</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>221064</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>143972</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>187128; 203992</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>215588; 223936</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>137347; 147528</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>187128; 203992</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>215588; 223936</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>137347; 147528</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>